--- a/Templates/CkSmp_checks.xlsx
+++ b/Templates/CkSmp_checks.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bre255\AppData\Roaming\EggSoft\CkSmp\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69989487-6C35-4B6E-9EF7-AAC093DBD5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742CBB5B-12D8-4F67-BC40-FF397485B445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Checks" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="__fdmtNewSamples__">Checks!$A$2:$I$2</definedName>
+    <definedName name="__fdmtNewSamples__">Checks!$A$2:$N$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>NewRegionID</t>
   </si>
@@ -47,24 +47,6 @@
     <t>NewOriginalNo</t>
   </si>
   <si>
-    <t>Longitude</t>
-  </si>
-  <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>SampleNo Status</t>
-  </si>
-  <si>
-    <t>Lon Difference</t>
-  </si>
-  <si>
-    <t>Lat Difference</t>
-  </si>
-  <si>
-    <t>Existing RegionID</t>
-  </si>
-  <si>
     <t>&lt;#fdmtNewSamples.SampleNo&gt;</t>
   </si>
   <si>
@@ -90,6 +72,45 @@
   </si>
   <si>
     <t>&lt;#fdmtNewSamples.ExistingRegionID&gt;</t>
+  </si>
+  <si>
+    <t>NewSeqNo</t>
+  </si>
+  <si>
+    <t>&lt;#fdmtNewSamples.SeqNo&gt;</t>
+  </si>
+  <si>
+    <t>SampleNo_Status</t>
+  </si>
+  <si>
+    <t>Lon_Difference</t>
+  </si>
+  <si>
+    <t>Lat_Difference</t>
+  </si>
+  <si>
+    <t>Exist_RegionID</t>
+  </si>
+  <si>
+    <t>NewLongitude</t>
+  </si>
+  <si>
+    <t>NewLatitude</t>
+  </si>
+  <si>
+    <t>SampleNo_Status_ID</t>
+  </si>
+  <si>
+    <t>&lt;#fdmtNewSamples.SampleStatusID&gt;</t>
+  </si>
+  <si>
+    <t>Geog_Difference</t>
+  </si>
+  <si>
+    <t>PreferredSampleNo</t>
+  </si>
+  <si>
+    <t>PreferredOriginalNo</t>
   </si>
 </sst>
 </file>
@@ -151,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -162,6 +183,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -467,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -476,70 +500,103 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" customWidth="1"/>
-    <col min="7" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" customWidth="1"/>
+    <col min="1" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="8" width="27.28515625" customWidth="1"/>
+    <col min="9" max="13" width="16.28515625" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="H2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="J2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="K2" s="4" t="e">
+        <f>SQRT(I2*I2+J2*J2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>17</v>
+      <c r="M2" s="3" t="str">
+        <f>IF(H2&lt;=1,$B2,$C2)</f>
+        <v>&lt;#fdmtNewSamples.OriginalNo&gt;</v>
+      </c>
+      <c r="N2" s="3" t="str">
+        <f>$B2</f>
+        <v>&lt;#fdmtNewSamples.SampleNo&gt;</v>
       </c>
     </row>
   </sheetData>
